--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Col5a3</t>
+  </si>
+  <si>
+    <t>Sdc3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col5a3</t>
-  </si>
-  <si>
-    <t>Sdc3</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5762833333333334</v>
+        <v>4.856400666666667</v>
       </c>
       <c r="H2">
-        <v>1.72885</v>
+        <v>14.569202</v>
       </c>
       <c r="I2">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="J2">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N2">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O2">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P2">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q2">
-        <v>13.78817674000555</v>
+        <v>153.4122854662062</v>
       </c>
       <c r="R2">
-        <v>124.09359066005</v>
+        <v>1380.710569195856</v>
       </c>
       <c r="S2">
-        <v>0.001220343924975205</v>
+        <v>0.01643422854477658</v>
       </c>
       <c r="T2">
-        <v>0.001220343924975205</v>
+        <v>0.01643422854477658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5762833333333334</v>
+        <v>4.856400666666667</v>
       </c>
       <c r="H3">
-        <v>1.72885</v>
+        <v>14.569202</v>
       </c>
       <c r="I3">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="J3">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.280679</v>
       </c>
       <c r="O3">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P3">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q3">
-        <v>5.240466876572222</v>
+        <v>44.16196922757311</v>
       </c>
       <c r="R3">
-        <v>47.16420188915</v>
+        <v>397.457723048158</v>
       </c>
       <c r="S3">
-        <v>0.0004638156325849448</v>
+        <v>0.004730832951662137</v>
       </c>
       <c r="T3">
-        <v>0.0004638156325849449</v>
+        <v>0.004730832951662138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5762833333333334</v>
+        <v>4.856400666666667</v>
       </c>
       <c r="H4">
-        <v>1.72885</v>
+        <v>14.569202</v>
       </c>
       <c r="I4">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="J4">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N4">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O4">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P4">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q4">
-        <v>54.00683151913889</v>
+        <v>339.9120575001262</v>
       </c>
       <c r="R4">
-        <v>486.06148367225</v>
+        <v>3059.208517501136</v>
       </c>
       <c r="S4">
-        <v>0.004779958220314634</v>
+        <v>0.03641294060059383</v>
       </c>
       <c r="T4">
-        <v>0.004779958220314635</v>
+        <v>0.03641294060059384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5762833333333334</v>
+        <v>4.856400666666667</v>
       </c>
       <c r="H5">
-        <v>1.72885</v>
+        <v>14.569202</v>
       </c>
       <c r="I5">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="J5">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N5">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q5">
-        <v>3.361969925705556</v>
+        <v>27.40791627524578</v>
       </c>
       <c r="R5">
-        <v>30.25772933135</v>
+        <v>246.671246477212</v>
       </c>
       <c r="S5">
-        <v>0.0002975563522391042</v>
+        <v>0.0029360618586359</v>
       </c>
       <c r="T5">
-        <v>0.0002975563522391042</v>
+        <v>0.0029360618586359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5762833333333334</v>
+        <v>4.856400666666667</v>
       </c>
       <c r="H6">
-        <v>1.72885</v>
+        <v>14.569202</v>
       </c>
       <c r="I6">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="J6">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N6">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O6">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P6">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q6">
-        <v>8.671220444188888</v>
+        <v>59.78917210761111</v>
       </c>
       <c r="R6">
-        <v>78.0409839977</v>
+        <v>538.1025489685001</v>
       </c>
       <c r="S6">
-        <v>0.0007674597875210037</v>
+        <v>0.006404890690034779</v>
       </c>
       <c r="T6">
-        <v>0.000767459787521004</v>
+        <v>0.006404890690034779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5762833333333334</v>
+        <v>4.856400666666667</v>
       </c>
       <c r="H7">
-        <v>1.72885</v>
+        <v>14.569202</v>
       </c>
       <c r="I7">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="J7">
-        <v>0.01195547268444014</v>
+        <v>0.09940371154080126</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N7">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q7">
-        <v>50.01142708936667</v>
+        <v>303.242758521516</v>
       </c>
       <c r="R7">
-        <v>450.1028438043</v>
+        <v>2729.184826693644</v>
       </c>
       <c r="S7">
-        <v>0.004426338766805251</v>
+        <v>0.03248475689509803</v>
       </c>
       <c r="T7">
-        <v>0.004426338766805251</v>
+        <v>0.03248475689509803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>100.301432</v>
       </c>
       <c r="I8">
-        <v>0.6936119562057035</v>
+        <v>0.6843432202846313</v>
       </c>
       <c r="J8">
-        <v>0.6936119562057037</v>
+        <v>0.6843432202846315</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N8">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O8">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P8">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q8">
-        <v>799.9386133508684</v>
+        <v>1056.1643608657</v>
       </c>
       <c r="R8">
-        <v>7199.447520157816</v>
+        <v>9505.479247791296</v>
       </c>
       <c r="S8">
-        <v>0.07079980519276607</v>
+        <v>0.1131411766311131</v>
       </c>
       <c r="T8">
-        <v>0.07079980519276612</v>
+        <v>0.1131411766311132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>100.301432</v>
       </c>
       <c r="I9">
-        <v>0.6936119562057035</v>
+        <v>0.6843432202846313</v>
       </c>
       <c r="J9">
-        <v>0.6936119562057037</v>
+        <v>0.6843432202846315</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>27.280679</v>
       </c>
       <c r="O9">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P9">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q9">
-        <v>304.0323521813698</v>
+        <v>304.0323521813697</v>
       </c>
       <c r="R9">
-        <v>2736.291169632329</v>
+        <v>2736.291169632328</v>
       </c>
       <c r="S9">
-        <v>0.02690885393889339</v>
+        <v>0.03256934179404604</v>
       </c>
       <c r="T9">
-        <v>0.0269088539388934</v>
+        <v>0.03256934179404605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>100.301432</v>
       </c>
       <c r="I10">
-        <v>0.6936119562057035</v>
+        <v>0.6843432202846313</v>
       </c>
       <c r="J10">
-        <v>0.6936119562057037</v>
+        <v>0.6843432202846315</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N10">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O10">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P10">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q10">
-        <v>3133.275032045792</v>
+        <v>2340.118979840419</v>
       </c>
       <c r="R10">
-        <v>28199.47528841213</v>
+        <v>21061.07081856378</v>
       </c>
       <c r="S10">
-        <v>0.2773153566808741</v>
+        <v>0.2506842918075061</v>
       </c>
       <c r="T10">
-        <v>0.2773153566808743</v>
+        <v>0.2506842918075062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>100.301432</v>
       </c>
       <c r="I11">
-        <v>0.6936119562057035</v>
+        <v>0.6843432202846313</v>
       </c>
       <c r="J11">
-        <v>0.6936119562057037</v>
+        <v>0.6843432202846315</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N11">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q11">
-        <v>195.0489619626925</v>
+        <v>188.6893496667325</v>
       </c>
       <c r="R11">
-        <v>1755.440657664232</v>
+        <v>1698.204147000592</v>
       </c>
       <c r="S11">
-        <v>0.01726311029313044</v>
+        <v>0.02021326966718989</v>
       </c>
       <c r="T11">
-        <v>0.01726311029313045</v>
+        <v>0.0202132696671899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>100.301432</v>
       </c>
       <c r="I12">
-        <v>0.6936119562057035</v>
+        <v>0.6843432202846313</v>
       </c>
       <c r="J12">
-        <v>0.6936119562057037</v>
+        <v>0.6843432202846315</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N12">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O12">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P12">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q12">
-        <v>503.0718846284071</v>
+        <v>411.6175738717778</v>
       </c>
       <c r="R12">
-        <v>4527.646961655664</v>
+        <v>3704.558164846</v>
       </c>
       <c r="S12">
-        <v>0.04452515584971074</v>
+        <v>0.04409436481242805</v>
       </c>
       <c r="T12">
-        <v>0.04452515584971076</v>
+        <v>0.04409436481242806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>100.301432</v>
       </c>
       <c r="I13">
-        <v>0.6936119562057035</v>
+        <v>0.6843432202846313</v>
       </c>
       <c r="J13">
-        <v>0.6936119562057037</v>
+        <v>0.6843432202846315</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N13">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q13">
-        <v>2901.476561544998</v>
+        <v>2087.669792987856</v>
       </c>
       <c r="R13">
-        <v>26113.28905390498</v>
+        <v>18789.02813689071</v>
       </c>
       <c r="S13">
-        <v>0.2567996742503287</v>
+        <v>0.2236407755723481</v>
       </c>
       <c r="T13">
-        <v>0.2567996742503287</v>
+        <v>0.2236407755723482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02516433333333333</v>
+        <v>10.49988266666667</v>
       </c>
       <c r="H14">
-        <v>0.075493</v>
+        <v>31.499648</v>
       </c>
       <c r="I14">
-        <v>0.0005220548337718365</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="J14">
-        <v>0.0005220548337718367</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N14">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O14">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P14">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q14">
-        <v>0.6020827871898888</v>
+        <v>331.6882414741049</v>
       </c>
       <c r="R14">
-        <v>5.418745084708999</v>
+        <v>2985.194173266944</v>
       </c>
       <c r="S14">
-        <v>5.328826903904511E-05</v>
+        <v>0.03553196766109869</v>
       </c>
       <c r="T14">
-        <v>5.328826903904514E-05</v>
+        <v>0.03553196766109869</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02516433333333333</v>
+        <v>10.49988266666667</v>
       </c>
       <c r="H15">
-        <v>0.075493</v>
+        <v>31.499648</v>
       </c>
       <c r="I15">
-        <v>0.0005220548337718365</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="J15">
-        <v>0.0005220548337718367</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.280679</v>
       </c>
       <c r="O15">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P15">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q15">
-        <v>0.2288333666385555</v>
+        <v>95.48130952233244</v>
       </c>
       <c r="R15">
-        <v>2.059500299747</v>
+        <v>859.331785700992</v>
       </c>
       <c r="S15">
-        <v>2.025325132355915E-05</v>
+        <v>0.01022839636132153</v>
       </c>
       <c r="T15">
-        <v>2.025325132355916E-05</v>
+        <v>0.01022839636132153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02516433333333333</v>
+        <v>10.49988266666667</v>
       </c>
       <c r="H16">
-        <v>0.075493</v>
+        <v>31.499648</v>
       </c>
       <c r="I16">
-        <v>0.0005220548337718365</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="J16">
-        <v>0.0005220548337718367</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N16">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O16">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P16">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q16">
-        <v>2.358294665167222</v>
+        <v>734.9139755361848</v>
       </c>
       <c r="R16">
-        <v>21.224651986505</v>
+        <v>6614.225779825664</v>
       </c>
       <c r="S16">
-        <v>0.0002087245197247954</v>
+        <v>0.07872736005469716</v>
       </c>
       <c r="T16">
-        <v>0.0002087245197247955</v>
+        <v>0.07872736005469719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02516433333333333</v>
+        <v>10.49988266666667</v>
       </c>
       <c r="H17">
-        <v>0.075493</v>
+        <v>31.499648</v>
       </c>
       <c r="I17">
-        <v>0.0005220548337718365</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="J17">
-        <v>0.0005220548337718367</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N17">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q17">
-        <v>0.1468057932158889</v>
+        <v>59.25785880954311</v>
       </c>
       <c r="R17">
-        <v>1.321252138943</v>
+        <v>533.320729285888</v>
       </c>
       <c r="S17">
-        <v>1.299327396800572E-05</v>
+        <v>0.006347973969559664</v>
       </c>
       <c r="T17">
-        <v>1.299327396800573E-05</v>
+        <v>0.006347973969559665</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02516433333333333</v>
+        <v>10.49988266666667</v>
       </c>
       <c r="H18">
-        <v>0.075493</v>
+        <v>31.499648</v>
       </c>
       <c r="I18">
-        <v>0.0005220548337718365</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="J18">
-        <v>0.0005220548337718367</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N18">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O18">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P18">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q18">
-        <v>0.3786427075762221</v>
+        <v>129.2684304604444</v>
       </c>
       <c r="R18">
-        <v>3.407784368186</v>
+        <v>1163.415874144</v>
       </c>
       <c r="S18">
-        <v>3.351235893184667E-05</v>
+        <v>0.0138478279190976</v>
       </c>
       <c r="T18">
-        <v>3.351235893184669E-05</v>
+        <v>0.0138478279190976</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02516433333333333</v>
+        <v>10.49988266666667</v>
       </c>
       <c r="H19">
-        <v>0.075493</v>
+        <v>31.499648</v>
       </c>
       <c r="I19">
-        <v>0.0005220548337718365</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="J19">
-        <v>0.0005220548337718367</v>
+        <v>0.2149178742547997</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N19">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q19">
-        <v>2.183828941352667</v>
+        <v>655.632350486784</v>
       </c>
       <c r="R19">
-        <v>19.654460472174</v>
+        <v>5900.691154381057</v>
       </c>
       <c r="S19">
-        <v>0.0001932831607845844</v>
+        <v>0.07023434828902507</v>
       </c>
       <c r="T19">
-        <v>0.0001932831607845845</v>
+        <v>0.07023434828902508</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>14.16721333333334</v>
+        <v>0.06523133333333334</v>
       </c>
       <c r="H20">
-        <v>42.50164000000001</v>
+        <v>0.195694</v>
       </c>
       <c r="I20">
-        <v>0.2939105162760844</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="J20">
-        <v>0.2939105162760845</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N20">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O20">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P20">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q20">
-        <v>338.9652798450356</v>
+        <v>2.060638859425778</v>
       </c>
       <c r="R20">
-        <v>3050.68751860532</v>
+        <v>18.545749734832</v>
       </c>
       <c r="S20">
-        <v>0.0300006467741465</v>
+        <v>0.00022074509783319</v>
       </c>
       <c r="T20">
-        <v>0.03000064677414651</v>
+        <v>0.00022074509783319</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>14.16721333333334</v>
+        <v>0.06523133333333334</v>
       </c>
       <c r="H21">
-        <v>42.50164000000001</v>
+        <v>0.195694</v>
       </c>
       <c r="I21">
-        <v>0.2939105162760844</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="J21">
-        <v>0.2939105162760845</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>27.280679</v>
       </c>
       <c r="O21">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P21">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q21">
-        <v>128.8303997570622</v>
+        <v>0.5931850218028889</v>
       </c>
       <c r="R21">
-        <v>1159.47359781356</v>
+        <v>5.338665196226</v>
       </c>
       <c r="S21">
-        <v>0.01140233394597426</v>
+        <v>6.354470365930614E-05</v>
       </c>
       <c r="T21">
-        <v>0.01140233394597426</v>
+        <v>6.354470365930614E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>14.16721333333334</v>
+        <v>0.06523133333333334</v>
       </c>
       <c r="H22">
-        <v>42.50164000000001</v>
+        <v>0.195694</v>
       </c>
       <c r="I22">
-        <v>0.2939105162760844</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="J22">
-        <v>0.2939105162760845</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N22">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O22">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P22">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q22">
-        <v>1327.691188227489</v>
+        <v>4.565709925665778</v>
       </c>
       <c r="R22">
-        <v>11949.2206940474</v>
+        <v>41.091389330992</v>
       </c>
       <c r="S22">
-        <v>0.1175093637359246</v>
+        <v>0.0004890998146564657</v>
       </c>
       <c r="T22">
-        <v>0.1175093637359246</v>
+        <v>0.0004890998146564658</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>14.16721333333334</v>
+        <v>0.06523133333333334</v>
       </c>
       <c r="H23">
-        <v>42.50164000000001</v>
+        <v>0.195694</v>
       </c>
       <c r="I23">
-        <v>0.2939105162760844</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="J23">
-        <v>0.2939105162760845</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N23">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q23">
-        <v>82.64987446751556</v>
+        <v>0.3681440320182222</v>
       </c>
       <c r="R23">
-        <v>743.8488702076401</v>
+        <v>3.313296288164</v>
       </c>
       <c r="S23">
-        <v>0.007315055072782255</v>
+        <v>3.943727936258237E-05</v>
       </c>
       <c r="T23">
-        <v>0.007315055072782258</v>
+        <v>3.943727936258238E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>14.16721333333334</v>
+        <v>0.06523133333333334</v>
       </c>
       <c r="H24">
-        <v>42.50164000000001</v>
+        <v>0.195694</v>
       </c>
       <c r="I24">
-        <v>0.2939105162760844</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="J24">
-        <v>0.2939105162760845</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N24">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O24">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P24">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q24">
-        <v>213.1712350288089</v>
+        <v>0.8030901243888889</v>
       </c>
       <c r="R24">
-        <v>1918.54111525928</v>
+        <v>7.2278111195</v>
       </c>
       <c r="S24">
-        <v>0.01886705012215878</v>
+        <v>8.603070220974807E-05</v>
       </c>
       <c r="T24">
-        <v>0.01886705012215878</v>
+        <v>8.603070220974807E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>14.16721333333334</v>
+        <v>0.06523133333333334</v>
       </c>
       <c r="H25">
-        <v>42.50164000000001</v>
+        <v>0.195694</v>
       </c>
       <c r="I25">
-        <v>0.2939105162760844</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="J25">
-        <v>0.2939105162760845</v>
+        <v>0.001335193919767573</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N25">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q25">
-        <v>1229.469109545947</v>
+        <v>4.073166696852001</v>
       </c>
       <c r="R25">
-        <v>11065.22198591352</v>
+        <v>36.658500271668</v>
       </c>
       <c r="S25">
-        <v>0.108816066625098</v>
+        <v>0.0004363363220462804</v>
       </c>
       <c r="T25">
-        <v>0.108816066625098</v>
+        <v>0.0004363363220462805</v>
       </c>
     </row>
   </sheetData>
